--- a/KnownIssues_203251343_203796791.xlsx
+++ b/KnownIssues_203251343_203796791.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="47">
   <si>
     <t xml:space="preserve">Known Issues in C++ Exercise Submission 2016 A</t>
   </si>
@@ -86,33 +86,51 @@
     <t xml:space="preserve">Reason notes (your own!)</t>
   </si>
   <si>
+    <t xml:space="preserve">Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Function is too long</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The function "handleWhatIsHit" in TheSnakesGame.cpp is too long</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Low</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lack of knowledge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">we didn’t find a reason to spread the function to cople of function, because any case handle different and there is no duplication of code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the function "run" in TheSnakesGame.cpp is too long</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the function is divided to a lot of function and still is pretty long, but we didn’t saw a why to make it cleaner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feature</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bug</t>
   </si>
   <si>
+    <t xml:space="preserve">Missing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Program Crash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Missing a required Class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partially Missing</t>
+  </si>
+  <si>
     <t xml:space="preserve">Program Misbehave</t>
   </si>
   <si>
-    <t xml:space="preserve">Low</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Feature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Missing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Program Crash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Missing a required Class</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partially Missing</t>
-  </si>
-  <si>
     <t xml:space="preserve">Having a redundant Class</t>
   </si>
   <si>
@@ -122,9 +140,6 @@
     <t xml:space="preserve">Code duplication</t>
   </si>
   <si>
-    <t xml:space="preserve">Function is too long</t>
-  </si>
-  <si>
     <t xml:space="preserve">Class is doing a job of another class</t>
   </si>
   <si>
@@ -159,9 +174,6 @@
   </si>
   <si>
     <t xml:space="preserve">Lack of time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lack of knowledge</t>
   </si>
 </sst>
 </file>
@@ -394,7 +406,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="3" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="6" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -476,28 +488,28 @@
   </sheetPr>
   <dimension ref="B2:K27"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="1.64081632653061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="2.50612244897959"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="7.34285714285714"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="21.2530612244898"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="24.4489795918367"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="6.82448979591837"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="1.7265306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="2.76326530612245"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="7.9469387755102"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="22.9795918367347"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="26.4367346938775"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="7.25714285714286"/>
     <col collapsed="false" hidden="true" max="7" min="7" style="1" width="0"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="8.46530612244898"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="19.0081632653061"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="7.60408163265306"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="29.9795918367347"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="50.8"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="1" width="7.25714285714286"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="9.0734693877551"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="20.5632653061225"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="8.20816326530612"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="32.4857142857143"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="55.0326530612245"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="1" width="7.86122448979592"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -511,7 +523,7 @@
         <v>203251343</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -523,13 +535,13 @@
         <v>203796701</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" s="2"/>
       <c r="H4" s="3" t="s">
@@ -539,7 +551,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="7"/>
@@ -551,7 +563,6 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="7" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="8" t="s">
         <v>8</v>
@@ -592,35 +603,47 @@
       <c r="D8" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="12"/>
+      <c r="E8" s="12" t="s">
+        <v>19</v>
+      </c>
       <c r="F8" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="12" t="str">
-        <f aca="false">$H$7&amp;C8</f>
-        <v>ReproducibilityBug</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G8" s="12"/>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
+      <c r="J8" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B9" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="12" t="str">
-        <f aca="false">$H$7&amp;C9</f>
-        <v>Reproducibility</v>
-      </c>
+      <c r="C9" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="12"/>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
+      <c r="J9" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B10" s="10" t="n">
@@ -630,10 +653,7 @@
       <c r="D10" s="11"/>
       <c r="E10" s="12"/>
       <c r="F10" s="11"/>
-      <c r="G10" s="12" t="str">
-        <f aca="false">$H$7&amp;C10</f>
-        <v>Reproducibility</v>
-      </c>
+      <c r="G10" s="12"/>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
@@ -977,13 +997,13 @@
       <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="6.91020408163265"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.0326530612245"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.5877551020408"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="41.9877551020408"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="6.91020408163265"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="7.42857142857143"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="23.8448979591837"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.9714285714286"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="45.530612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="7.42857142857143"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -991,87 +1011,87 @@
         <v>9</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E2" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="15" t="s">
         <v>17</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="16" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="16" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="16" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F6" s="16" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F7" s="16" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F8" s="16" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F9" s="16" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F10" s="16" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F11" s="16" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F12" s="16" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1081,17 +1101,17 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="16" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="16" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1113,27 +1133,27 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="16" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="16" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F21" s="16"/>
     </row>
@@ -1144,12 +1164,12 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="16" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="16" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/KnownIssues_203251343_203796791.xlsx
+++ b/KnownIssues_203251343_203796791.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
   <si>
     <t xml:space="preserve">Known Issues in C++ Exercise Submission 2016 A</t>
   </si>
@@ -86,94 +86,82 @@
     <t xml:space="preserve">Reason notes (your own!)</t>
   </si>
   <si>
+    <t xml:space="preserve">Feature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bug</t>
+  </si>
+  <si>
     <t xml:space="preserve">Code</t>
   </si>
   <si>
+    <t xml:space="preserve">Missing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Program Crash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Missing a required Class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partially Missing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Program Misbehave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Having a redundant Class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Developed in a different way</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code duplication</t>
+  </si>
+  <si>
     <t xml:space="preserve">Function is too long</t>
   </si>
   <si>
-    <t xml:space="preserve">The function "handleWhatIsHit" in TheSnakesGame.cpp is too long</t>
+    <t xml:space="preserve">Class is doing a job of another class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spread logic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code is too complex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use of hard coded numbers instead of enums / constants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bad names for functions / classes / variables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medium</t>
   </si>
   <si>
     <t xml:space="preserve">Low</t>
   </si>
   <si>
+    <t xml:space="preserve">Always </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not relevant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sometimes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lack of time</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lack of knowledge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">we didn’t find a reason to spread the function to cople of function, because any case handle different and there is no duplication of code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">the function "run" in TheSnakesGame.cpp is too long</t>
-  </si>
-  <si>
-    <t xml:space="preserve">the function is divided to a lot of function and still is pretty long, but we didn’t saw a why to make it cleaner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Feature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bug</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Missing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Program Crash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Missing a required Class</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partially Missing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Program Misbehave</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Having a redundant Class</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Developed in a different way</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code duplication</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Class is doing a job of another class</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spread logic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code is too complex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Use of hard coded numbers instead of enums / constants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bad names for functions / classes / variables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">High</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Medium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Always </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not relevant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sometimes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lack of time</t>
   </si>
 </sst>
 </file>
@@ -340,7 +328,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -385,10 +373,6 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
@@ -406,7 +390,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="6" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="11" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -488,25 +472,25 @@
   </sheetPr>
   <dimension ref="B2:K27"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J8" activeCellId="0" sqref="J8:K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="1.7265306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="2.76326530612245"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="7.9469387755102"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="22.9795918367347"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="26.4367346938775"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="7.25714285714286"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="1.81632653061225"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="2.93877551020408"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="8.55510204081633"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="24.8816326530612"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="28.5959183673469"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="7.86122448979592"/>
     <col collapsed="false" hidden="true" max="7" min="7" style="1" width="0"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="9.0734693877551"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="20.5632653061225"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="8.20816326530612"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="32.4857142857143"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="55.0326530612245"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="1" width="7.86122448979592"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="9.84897959183673"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="22.2897959183673"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="8.81224489795918"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="35.2489795918367"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="59.6979591836735"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="1" width="8.46530612244898"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -541,7 +525,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4" s="2"/>
       <c r="H4" s="3" t="s">
@@ -597,53 +581,29 @@
       <c r="B8" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8" s="12" t="s">
-        <v>22</v>
-      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
     </row>
     <row r="9" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="13" t="n">
+      <c r="B9" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="C9" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="K9" s="14" t="s">
-        <v>24</v>
-      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
     </row>
     <row r="10" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B10" s="10" t="n">
@@ -651,30 +611,30 @@
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
-      <c r="E10" s="12"/>
+      <c r="E10" s="11"/>
       <c r="F10" s="11"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
     </row>
     <row r="11" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="13" t="n">
+      <c r="B11" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="12" t="str">
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="11" t="str">
         <f aca="false">$H$7&amp;C11</f>
         <v>Reproducibility</v>
       </c>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
     </row>
     <row r="12" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B12" s="10" t="n">
@@ -682,33 +642,33 @@
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
-      <c r="E12" s="12"/>
+      <c r="E12" s="11"/>
       <c r="F12" s="11"/>
-      <c r="G12" s="12" t="str">
+      <c r="G12" s="11" t="str">
         <f aca="false">$H$7&amp;C12</f>
         <v>Reproducibility</v>
       </c>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
     </row>
     <row r="13" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="13" t="n">
+      <c r="B13" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="12" t="str">
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="11" t="str">
         <f aca="false">$H$7&amp;C13</f>
         <v>Reproducibility</v>
       </c>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
     </row>
     <row r="14" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="10" t="n">
@@ -716,33 +676,33 @@
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
-      <c r="E14" s="12"/>
+      <c r="E14" s="11"/>
       <c r="F14" s="11"/>
-      <c r="G14" s="12" t="str">
+      <c r="G14" s="11" t="str">
         <f aca="false">$H$7&amp;C14</f>
         <v>Reproducibility</v>
       </c>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
     </row>
     <row r="15" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B15" s="13" t="n">
+      <c r="B15" s="12" t="n">
         <v>8</v>
       </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="12" t="str">
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="11" t="str">
         <f aca="false">$H$7&amp;C15</f>
         <v>Reproducibility</v>
       </c>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
     </row>
     <row r="16" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B16" s="10" t="n">
@@ -750,33 +710,33 @@
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
-      <c r="E16" s="12"/>
+      <c r="E16" s="11"/>
       <c r="F16" s="11"/>
-      <c r="G16" s="12" t="str">
+      <c r="G16" s="11" t="str">
         <f aca="false">$H$7&amp;C16</f>
         <v>Reproducibility</v>
       </c>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
     </row>
     <row r="17" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B17" s="13" t="n">
+      <c r="B17" s="12" t="n">
         <v>10</v>
       </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="12" t="str">
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="11" t="str">
         <f aca="false">$H$7&amp;C17</f>
         <v>Reproducibility</v>
       </c>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
     </row>
     <row r="18" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B18" s="10" t="n">
@@ -784,33 +744,33 @@
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
-      <c r="E18" s="12"/>
+      <c r="E18" s="11"/>
       <c r="F18" s="11"/>
-      <c r="G18" s="12" t="str">
+      <c r="G18" s="11" t="str">
         <f aca="false">$H$7&amp;C18</f>
         <v>Reproducibility</v>
       </c>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
     </row>
     <row r="19" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B19" s="13" t="n">
+      <c r="B19" s="12" t="n">
         <v>12</v>
       </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="12" t="str">
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="11" t="str">
         <f aca="false">$H$7&amp;C19</f>
         <v>Reproducibility</v>
       </c>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
     </row>
     <row r="20" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="10" t="n">
@@ -818,33 +778,33 @@
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
-      <c r="E20" s="12"/>
+      <c r="E20" s="11"/>
       <c r="F20" s="11"/>
-      <c r="G20" s="12" t="str">
+      <c r="G20" s="11" t="str">
         <f aca="false">$H$7&amp;C20</f>
         <v>Reproducibility</v>
       </c>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
     </row>
     <row r="21" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B21" s="13" t="n">
+      <c r="B21" s="12" t="n">
         <v>14</v>
       </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="12" t="str">
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="11" t="str">
         <f aca="false">$H$7&amp;C21</f>
         <v>Reproducibility</v>
       </c>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
     </row>
     <row r="22" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B22" s="10" t="n">
@@ -852,33 +812,33 @@
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
-      <c r="E22" s="12"/>
+      <c r="E22" s="11"/>
       <c r="F22" s="11"/>
-      <c r="G22" s="12" t="str">
+      <c r="G22" s="11" t="str">
         <f aca="false">$H$7&amp;C22</f>
         <v>Reproducibility</v>
       </c>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
     </row>
     <row r="23" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B23" s="13" t="n">
+      <c r="B23" s="12" t="n">
         <v>16</v>
       </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="12" t="str">
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="11" t="str">
         <f aca="false">$H$7&amp;C23</f>
         <v>Reproducibility</v>
       </c>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
     </row>
     <row r="24" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B24" s="10" t="n">
@@ -886,33 +846,33 @@
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
-      <c r="E24" s="12"/>
+      <c r="E24" s="11"/>
       <c r="F24" s="11"/>
-      <c r="G24" s="12" t="str">
+      <c r="G24" s="11" t="str">
         <f aca="false">$H$7&amp;C24</f>
         <v>Reproducibility</v>
       </c>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
     </row>
     <row r="25" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B25" s="13" t="n">
+      <c r="B25" s="12" t="n">
         <v>18</v>
       </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="12" t="str">
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="11" t="str">
         <f aca="false">$H$7&amp;C25</f>
         <v>Reproducibility</v>
       </c>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
     </row>
     <row r="26" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B26" s="10" t="n">
@@ -920,33 +880,33 @@
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
-      <c r="E26" s="12"/>
+      <c r="E26" s="11"/>
       <c r="F26" s="11"/>
-      <c r="G26" s="12" t="str">
+      <c r="G26" s="11" t="str">
         <f aca="false">$H$7&amp;C26</f>
         <v>Reproducibility</v>
       </c>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
     </row>
     <row r="27" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B27" s="13" t="n">
+      <c r="B27" s="12" t="n">
         <v>20</v>
       </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="12" t="str">
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="11" t="str">
         <f aca="false">$H$7&amp;C27</f>
         <v>Reproducibility</v>
       </c>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
     </row>
   </sheetData>
   <sheetProtection sheet="true" objects="true" scenarios="true"/>
@@ -994,128 +954,126 @@
   <dimension ref="B2:F25"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
+      <selection pane="topLeft" activeCell="D19" activeCellId="1" sqref="J8:K9 D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="7.42857142857143"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="23.8448979591837"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.9714285714286"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="45.530612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="7.42857142857143"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.8326530612245"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.5265306122449"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="49.330612244898"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="15" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="16" t="s">
+      <c r="F5" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="16" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F6" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="16" t="s">
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F7" s="15" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="16" t="s">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F8" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="16" t="s">
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F9" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="16" t="s">
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F10" s="15" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="16" t="s">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F11" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="16" t="s">
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F12" s="15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F6" s="16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F7" s="16" t="s">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="15" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F8" s="16" t="s">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="15" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F9" s="16" t="s">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F10" s="16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F11" s="16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F12" s="16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="16" t="s">
-        <v>20</v>
-      </c>
-    </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="14" t="s">
         <v>13</v>
       </c>
       <c r="D19" s="0" t="str">
@@ -1132,44 +1090,44 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>44</v>
+      <c r="B20" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="F21" s="16"/>
+      <c r="B21" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="15"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="14" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="16" t="s">
-        <v>46</v>
+      <c r="B24" s="15" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="16" t="s">
-        <v>21</v>
+      <c r="B25" s="15" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
